--- a/biology/Histoire de la zoologie et de la botanique/Glen_Milton_Storr/Glen_Milton_Storr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Glen_Milton_Storr/Glen_Milton_Storr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glen Milton Storr est un ornithologue et herpétologiste australien, né le 22 décembre 1921 et mort le 26 juin 1990.
 Il rejoint le Western Australian Museum en 1962 et devient le conservateur des sections ornithologie et herpétologie en 1965. Il est membre de la Royal Australasian Ornithologists Union (RAOU) et occupe le poste de secrétaire de la branche de l’Australie-Occidentale de cette société.
@@ -512,7 +524,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aprasia fusca Storr, 1979
@@ -722,7 +736,9 @@
           <t>Espèces nommées en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carlia storri Ingram &amp; Covacevich,  1989
 Ctenotus storri Rankin, 1978
@@ -756,7 +772,9 @@
           <t>Biographies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Smith, 1990 : Glen Milton Storr 1921–1990. Copeia, 1990, n. 2, p. 550–552.
 Davies, 1991 : Obituary. Glen Milton Storr. Emu, vol. 91, p. 66.
@@ -788,7 +806,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 8 septembre 2007).
 Storr est l’abréviation habituelle de Glen Milton Storr en zoologie.
